--- a/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.3.xlsx
+++ b/results_cnn_subnetwork_evaluation/pcc/generalized_surface_laplacian_filtering/cnn_validation_SubRCM_pcc_by_3d_spherical_generalized_surface_laplacian_filtering_sigma_0.3.xlsx
@@ -473,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.46642271991972</v>
+        <v>82.39024559035978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.398669729399747</v>
+        <v>0.5962255874908199</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8846642271991971</v>
+        <v>0.8239024559035977</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8634855411661947</v>
+        <v>0.8085546839436295</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.06211991453213</v>
+        <v>92.4783951418265</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2425829243419381</v>
+        <v>0.2398682441193765</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9106211991453212</v>
+        <v>0.924783951418265</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9086581688210582</v>
+        <v>0.9202702228934294</v>
       </c>
     </row>
     <row r="4">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.66666666666667</v>
+        <v>86.75533525376518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3600699017959414</v>
+        <v>0.389808013792693</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8666666666666666</v>
+        <v>0.8675533525376518</v>
       </c>
       <c r="E4" t="n">
-        <v>0.853914187414181</v>
+        <v>0.857652694179815</v>
       </c>
     </row>
     <row r="5">
@@ -530,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89.79351032448378</v>
+        <v>87.26182752445955</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2477012124970012</v>
+        <v>0.3274258236594809</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8979351032448377</v>
+        <v>0.8726182752445956</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8984105558446837</v>
+        <v>0.8665197492822416</v>
       </c>
     </row>
     <row r="6">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>94.74926253687315</v>
+        <v>93.33333333333334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1572554400054893</v>
+        <v>0.2021770720680555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9474926253687315</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9471013220224187</v>
+        <v>0.9328496231040372</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.57556726269259</v>
+        <v>82.27605775136463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3868117161560803</v>
+        <v>0.4617450903635472</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8557556726269258</v>
+        <v>0.8227605775136464</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8473567753067099</v>
+        <v>0.8077283166340374</v>
       </c>
     </row>
     <row r="8">
@@ -587,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.70015311551137</v>
+        <v>84.10133305651433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2756976069392598</v>
+        <v>0.3690562134919068</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8770015311551138</v>
+        <v>0.8410133305651433</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8731131964258797</v>
+        <v>0.8295441068943926</v>
       </c>
     </row>
     <row r="9">
@@ -606,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.744400903122</v>
+        <v>91.82942759020406</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1765932953312586</v>
+        <v>0.1984772215615825</v>
       </c>
       <c r="D9" t="n">
-        <v>0.92744400903122</v>
+        <v>0.9182942759020406</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9250497495415908</v>
+        <v>0.9166231098063345</v>
       </c>
     </row>
     <row r="10">
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>94.60176991150442</v>
+        <v>93.51118954316215</v>
       </c>
       <c r="C10" t="n">
-        <v>0.127976645445536</v>
+        <v>0.1565469843623532</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9460176991150442</v>
+        <v>0.9351118954316213</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9458678763762812</v>
+        <v>0.934630803343139</v>
       </c>
     </row>
     <row r="11">
@@ -644,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.79992906513033</v>
+        <v>90.09351291966193</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1982546023429071</v>
+        <v>0.2518500489415146</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9179992906513033</v>
+        <v>0.9009351291966194</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9180591864433542</v>
+        <v>0.8958204853395866</v>
       </c>
     </row>
     <row r="12">
@@ -663,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>86.46017699115045</v>
+        <v>86.16536475229024</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3715146541362628</v>
+        <v>0.3629454241211837</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8646017699115044</v>
+        <v>0.8616536475229024</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8601261081926529</v>
+        <v>0.8533170999889068</v>
       </c>
     </row>
     <row r="13">
@@ -682,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.30175001513854</v>
+        <v>91.36160347407849</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2071104024304077</v>
+        <v>0.2230166186733792</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9230175001513853</v>
+        <v>0.913616034740785</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9202135392090334</v>
+        <v>0.9104248609889993</v>
       </c>
     </row>
     <row r="14">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90.14766563724599</v>
+        <v>90.41315236290971</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2382426447351463</v>
+        <v>0.2320713696293145</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9014766563724599</v>
+        <v>0.9041315236290972</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8984150641526254</v>
+        <v>0.9005288553658582</v>
       </c>
     </row>
     <row r="15">
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.40013321914549</v>
+        <v>83.86984316473327</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3380029130067366</v>
+        <v>0.392668180167675</v>
       </c>
       <c r="D15" t="n">
-        <v>0.854001332191455</v>
+        <v>0.8386984316473326</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8498411310072495</v>
+        <v>0.8384024279011971</v>
       </c>
     </row>
     <row r="16">
@@ -739,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.73641640498622</v>
+        <v>87.94081263678751</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2448272408684716</v>
+        <v>0.2844101942920437</v>
       </c>
       <c r="D16" t="n">
-        <v>0.897364164049862</v>
+        <v>0.8794081263678752</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8919875537998309</v>
+        <v>0.8759815285139825</v>
       </c>
     </row>
     <row r="17">
@@ -758,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.53392330383481</v>
+        <v>92.38938053097345</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2238365290822306</v>
+        <v>0.1852404768384683</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9153392330383481</v>
+        <v>0.9238938053097344</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9132272134920131</v>
+        <v>0.9228127862713862</v>
       </c>
     </row>
     <row r="18">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>91.30364449519459</v>
+        <v>91.50909609944723</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2454937958386533</v>
+        <v>0.2344257025853134</v>
       </c>
       <c r="D18" t="n">
-        <v>0.913036444951946</v>
+        <v>0.9150909609944723</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9068226268539256</v>
+        <v>0.9144090006387786</v>
       </c>
     </row>
     <row r="19">
@@ -796,16 +796,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.5726174101852</v>
+        <v>95.01596034567773</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1412625614399682</v>
+        <v>0.1498567481340918</v>
       </c>
       <c r="D19" t="n">
-        <v>0.945726174101852</v>
+        <v>0.9501596034567774</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9419855532581147</v>
+        <v>0.9490038092488635</v>
       </c>
     </row>
     <row r="20">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>91.12128997655688</v>
+        <v>88.380868346612</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2236771376725907</v>
+        <v>0.2937069978312745</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9112128997655689</v>
+        <v>0.88380868346612</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9087788918630968</v>
+        <v>0.8753295091889249</v>
       </c>
     </row>
     <row r="21">
@@ -834,16 +834,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>77.30793518975078</v>
+        <v>72.19898096004292</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5742995612944166</v>
+        <v>0.7027965808636509</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7730793518975078</v>
+        <v>0.721989809600429</v>
       </c>
       <c r="E21" t="n">
-        <v>0.757807284294599</v>
+        <v>0.6989571161906742</v>
       </c>
     </row>
     <row r="22">
@@ -853,16 +853,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.52851668267026</v>
+        <v>87.32324674088876</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3129108123869325</v>
+        <v>0.4224089910431455</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8652851668267025</v>
+        <v>0.8732324674088876</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8637792364969312</v>
+        <v>0.8543247470186243</v>
       </c>
     </row>
     <row r="23">
@@ -872,16 +872,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>88.34808259587021</v>
+        <v>89.02862481509355</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2964417368115392</v>
+        <v>0.2669185778785807</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8834808259587021</v>
+        <v>0.8902862481509356</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8829076482855738</v>
+        <v>0.8873888690809986</v>
       </c>
     </row>
     <row r="24">
@@ -891,16 +891,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.94394415176602</v>
+        <v>88.14643725291742</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2441013707723566</v>
+        <v>0.2875635304828393</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8994394415176602</v>
+        <v>0.8814643725291742</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8954195322108131</v>
+        <v>0.8801067703961214</v>
       </c>
     </row>
     <row r="25">
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.5547452832637</v>
+        <v>87.28700075260167</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3312699288110404</v>
+        <v>0.3684663248908085</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8855474528326368</v>
+        <v>0.8728700075260166</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8765735283748665</v>
+        <v>0.8662028492571341</v>
       </c>
     </row>
     <row r="26">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.26288289691088</v>
+        <v>87.78795664322357</v>
       </c>
       <c r="C26" t="n">
-        <v>0.298712961145308</v>
+        <v>0.338469325300745</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8926288289691087</v>
+        <v>0.8778795664322356</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8786609093171392</v>
+        <v>0.8650134318673108</v>
       </c>
     </row>
     <row r="27">
@@ -948,16 +948,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82.03609027759755</v>
+        <v>80.32777100147925</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6934357151767472</v>
+        <v>0.6888618924300924</v>
       </c>
       <c r="D27" t="n">
-        <v>0.8203609027759755</v>
+        <v>0.8032777100147925</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8132539429082039</v>
+        <v>0.786796280686419</v>
       </c>
     </row>
     <row r="28">
@@ -967,16 +967,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.06489675516224</v>
+        <v>83.24622185313021</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6923338060577711</v>
+        <v>0.5902738122599354</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8206489675516224</v>
+        <v>0.8324622185313022</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8045930059101962</v>
+        <v>0.8166288964069388</v>
       </c>
     </row>
     <row r="29">
@@ -986,16 +986,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.84955752212389</v>
+        <v>98.37758112094396</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04096824689531786</v>
+        <v>0.04932176882393833</v>
       </c>
       <c r="D29" t="n">
-        <v>0.988495575221239</v>
+        <v>0.9837758112094395</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9885119679123747</v>
+        <v>0.983810533377676</v>
       </c>
     </row>
     <row r="30">
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>99.35103244837758</v>
+        <v>97.96460176991151</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02325479790792239</v>
+        <v>0.05136759734244455</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9935103244837759</v>
+        <v>0.9796460176991151</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9935149467128543</v>
+        <v>0.9795670500100518</v>
       </c>
     </row>
     <row r="31">
@@ -1024,16 +1024,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.69321533923303</v>
+        <v>94.92625368731564</v>
       </c>
       <c r="C31" t="n">
-        <v>0.113439906968703</v>
+        <v>0.122573980398973</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9569321533923304</v>
+        <v>0.9492625368731563</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9549513146812897</v>
+        <v>0.9467935821395322</v>
       </c>
     </row>
     <row r="32">
@@ -1043,16 +1043,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>89.78927730055337</v>
+        <v>88.5897138671903</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2808916599231227</v>
+        <v>0.3146848131279744</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8978927730055335</v>
+        <v>0.8858971386719031</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8927462519431911</v>
+        <v>0.8791997933319673</v>
       </c>
     </row>
     <row r="33">
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.694072202474502</v>
+        <v>5.402777455327564</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1549913141196846</v>
+        <v>0.1640181637400792</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04694072202474504</v>
+        <v>0.05402777455327566</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05047882543586266</v>
+        <v>0.05941149249992869</v>
       </c>
     </row>
   </sheetData>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86.25403333938876</v>
+        <v>82.77597557072292</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3824888614064548</v>
+        <v>0.4577913465948465</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8625403333938875</v>
+        <v>0.8277597557072294</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8519940425855665</v>
+        <v>0.8219301324757857</v>
       </c>
     </row>
     <row r="3">
@@ -1146,16 +1146,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91.09179145148315</v>
+        <v>86.20212977620913</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2733852666676587</v>
+        <v>0.3577910832129419</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9109179145148314</v>
+        <v>0.8620212977620912</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9029211508885263</v>
+        <v>0.8595234588676979</v>
       </c>
     </row>
     <row r="4">
@@ -1165,16 +1165,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.72861356932154</v>
+        <v>84.72080208306301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3674374610365097</v>
+        <v>0.4168935874443075</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8772861356932153</v>
+        <v>0.8472080208306301</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8597422463513784</v>
+        <v>0.8386619273223681</v>
       </c>
     </row>
     <row r="5">
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.81537037517626</v>
+        <v>81.95711035562591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3309593699794883</v>
+        <v>0.411710123764351</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8681537037517625</v>
+        <v>0.8195711035562592</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8629805502037808</v>
+        <v>0.8128616622931956</v>
       </c>
     </row>
     <row r="6">
@@ -1203,16 +1203,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.45132743362832</v>
+        <v>87.5094075208263</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2050178311920414</v>
+        <v>0.3706449502768616</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9345132743362832</v>
+        <v>0.8750940752082631</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9342837004954527</v>
+        <v>0.8741235924438516</v>
       </c>
     </row>
     <row r="7">
@@ -1222,16 +1222,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>78.79419372139897</v>
+        <v>82.27969100078721</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7973389336839318</v>
+        <v>0.425154762264962</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7879419372139898</v>
+        <v>0.822796910007872</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7707861237357301</v>
+        <v>0.8161460242247387</v>
       </c>
     </row>
     <row r="8">
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.43102448983123</v>
+        <v>87.67428783986021</v>
       </c>
       <c r="C8" t="n">
-        <v>0.327533483922889</v>
+        <v>0.2718932804753422</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8643102448983122</v>
+        <v>0.876742878398602</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8617711780492876</v>
+        <v>0.8732521260240038</v>
       </c>
     </row>
     <row r="9">
@@ -1260,16 +1260,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.16987171169301</v>
+        <v>88.58839609339182</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3158258919388269</v>
+        <v>0.2742371339601959</v>
       </c>
       <c r="D9" t="n">
-        <v>0.87169871711693</v>
+        <v>0.8858839609339182</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8672407346071344</v>
+        <v>0.884285789743565</v>
       </c>
     </row>
     <row r="10">
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.5401690326041</v>
+        <v>92.74509295063106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.162319497798065</v>
+        <v>0.1749573726655702</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9354016903260408</v>
+        <v>0.9274509295063107</v>
       </c>
       <c r="E10" t="n">
-        <v>0.934985836981056</v>
+        <v>0.9276941317676766</v>
       </c>
     </row>
     <row r="11">
@@ -1298,16 +1298,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.56689071704773</v>
+        <v>90.91999065735862</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1719036491975809</v>
+        <v>0.2137201681296574</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9256689071704773</v>
+        <v>0.9091999065735863</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9257542573659732</v>
+        <v>0.908286720619947</v>
       </c>
     </row>
     <row r="12">
@@ -1317,16 +1317,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>85.48672566371681</v>
+        <v>84.89744720975095</v>
       </c>
       <c r="C12" t="n">
-        <v>0.388913989274685</v>
+        <v>0.4202479324187152</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8548672566371682</v>
+        <v>0.8489744720975094</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8554865652360595</v>
+        <v>0.8466829680215764</v>
       </c>
     </row>
     <row r="13">
@@ -1336,16 +1336,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.80230797844271</v>
+        <v>88.73744582565594</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4588259556641181</v>
+        <v>0.3041636698724081</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8680230797844273</v>
+        <v>0.8873744582565593</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8564250873884987</v>
+        <v>0.8826648972500607</v>
       </c>
     </row>
     <row r="14">
@@ -1355,16 +1355,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.64619071099231</v>
+        <v>86.04840872325886</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2596294844794708</v>
+        <v>0.3261070223214725</v>
       </c>
       <c r="D14" t="n">
-        <v>0.896461907109923</v>
+        <v>0.8604840872325885</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8920824145020939</v>
+        <v>0.8568909950915453</v>
       </c>
     </row>
     <row r="15">
@@ -1374,16 +1374,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.25083261965935</v>
+        <v>79.65259215045111</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6494977682906514</v>
+        <v>0.4691325433552265</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7625083261965934</v>
+        <v>0.7965259215045113</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7538091455481243</v>
+        <v>0.7874249927049762</v>
       </c>
     </row>
     <row r="16">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.20679244630144</v>
+        <v>80.54550644901772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3833320170020064</v>
+        <v>0.5095764280917744</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8520679244630145</v>
+        <v>0.8054550644901772</v>
       </c>
       <c r="E16" t="n">
-        <v>0.847093069568265</v>
+        <v>0.7988841257577272</v>
       </c>
     </row>
     <row r="17">
@@ -1412,16 +1412,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.46902654867256</v>
+        <v>90.20821979428888</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2824722236061158</v>
+        <v>0.2658947326320534</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8946902654867257</v>
+        <v>0.9020821979428888</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8770854369941545</v>
+        <v>0.8990873807447942</v>
       </c>
     </row>
     <row r="18">
@@ -1431,16 +1431,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>88.76607929134335</v>
+        <v>89.50371543006426</v>
       </c>
       <c r="C18" t="n">
-        <v>0.302518976805671</v>
+        <v>0.2769739727379298</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8876607929134336</v>
+        <v>0.8950371543006428</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8801909403016734</v>
+        <v>0.8923431236333187</v>
       </c>
     </row>
     <row r="19">
@@ -1450,16 +1450,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.89970501474927</v>
+        <v>93.06801961954689</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1270442661193859</v>
+        <v>0.1866755498231214</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9589970501474927</v>
+        <v>0.9306801961954688</v>
       </c>
       <c r="E19" t="n">
-        <v>0.957698060941256</v>
+        <v>0.9293613031304873</v>
       </c>
     </row>
     <row r="20">
@@ -1469,16 +1469,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89.17490635732142</v>
+        <v>84.52123288263739</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2647128384220802</v>
+        <v>0.420344523138677</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8917490635732144</v>
+        <v>0.8452123288263739</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8868674761203454</v>
+        <v>0.8412378863616032</v>
       </c>
     </row>
     <row r="21">
@@ -1488,16 +1488,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>74.28645576518828</v>
+        <v>70.78374380401215</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6608326070321102</v>
+        <v>0.758211216578881</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7428645576518828</v>
+        <v>0.7078374380401214</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7257777304009845</v>
+        <v>0.6852417691836751</v>
       </c>
     </row>
     <row r="22">
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.40705369423611</v>
+        <v>85.40947586051782</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3717202264815569</v>
+        <v>0.4723557237535715</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8540705369423611</v>
+        <v>0.8540947586051783</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8496222769816579</v>
+        <v>0.8379828087072138</v>
       </c>
     </row>
     <row r="23">
@@ -1526,16 +1526,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86.19503628924126</v>
+        <v>85.13533854099083</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3332358502899296</v>
+        <v>0.3791911675439527</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8619503628924126</v>
+        <v>0.8513533854099083</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8614223887603082</v>
+        <v>0.8457557046708327</v>
       </c>
     </row>
     <row r="24">
@@ -1545,16 +1545,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>89.7067448680352</v>
+        <v>88.05569252329173</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2545780998450937</v>
+        <v>0.269783071288839</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8970674486803519</v>
+        <v>0.8805569252329173</v>
       </c>
       <c r="E24" t="n">
-        <v>0.894777321596432</v>
+        <v>0.879589537664333</v>
       </c>
     </row>
     <row r="25">
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>88.08294189396102</v>
+        <v>83.80825093642679</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3090526944181571</v>
+        <v>0.4158468245528638</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8808294189396102</v>
+        <v>0.8380825093642679</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8802553807579599</v>
+        <v>0.8265051499987704</v>
       </c>
     </row>
     <row r="26">
@@ -1583,16 +1583,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>89.11504424778761</v>
+        <v>88.26010605628076</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3092462134217688</v>
+        <v>0.2966434651340629</v>
       </c>
       <c r="D26" t="n">
-        <v>0.891150442477876</v>
+        <v>0.8826010605628076</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8779146541483367</v>
+        <v>0.877238863713376</v>
       </c>
     </row>
     <row r="27">
@@ -1602,16 +1602,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.85268038650852</v>
+        <v>77.49504753501328</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8803495783591643</v>
+        <v>0.8396849460443869</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7985268038650852</v>
+        <v>0.7749504753501328</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7922657793508695</v>
+        <v>0.7631643456497539</v>
       </c>
     </row>
     <row r="28">
@@ -1621,16 +1621,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.74474692687653</v>
+        <v>80.06297632332459</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5979842333705164</v>
+        <v>0.6089453578849013</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8274474692687652</v>
+        <v>0.800629763233246</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8128234409710625</v>
+        <v>0.7888280482398138</v>
       </c>
     </row>
     <row r="29">
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>98.49557522123894</v>
+        <v>95.89970501474926</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04818465334862292</v>
+        <v>0.1161493614785741</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9849557522123893</v>
+        <v>0.9589970501474927</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9849633767799766</v>
+        <v>0.9586732375977072</v>
       </c>
     </row>
     <row r="30">
@@ -1659,16 +1659,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>97.28700075260167</v>
+        <v>92.83306949022051</v>
       </c>
       <c r="C30" t="n">
-        <v>0.06746473065269734</v>
+        <v>0.1568556673208756</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9728700075260166</v>
+        <v>0.928330694902205</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9728782192316006</v>
+        <v>0.925246572350569</v>
       </c>
     </row>
     <row r="31">
@@ -1678,16 +1678,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.84070796460176</v>
+        <v>96.60766961651917</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1219465518158965</v>
+        <v>0.08885143220306872</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9584070796460177</v>
+        <v>0.9660766961651918</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9567453947510163</v>
+        <v>0.9656738904010365</v>
       </c>
     </row>
     <row r="32">
@@ -1697,16 +1697,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.91866134943497</v>
+        <v>86.23021825448318</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3468584401841049</v>
+        <v>0.3652142805654797</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8791866134943497</v>
+        <v>0.8623021825448317</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8729547993864855</v>
+        <v>0.8568414388885334</v>
       </c>
     </row>
     <row r="33">
@@ -1716,16 +1716,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.656770813768004</v>
+        <v>5.460772864177698</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1956766889732766</v>
+        <v>0.1667882402020436</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05656770813768004</v>
+        <v>0.05460772864177697</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06011881780926723</v>
+        <v>0.05879446180463588</v>
       </c>
     </row>
   </sheetData>
@@ -1781,16 +1781,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.99774219500168</v>
+        <v>84.79312104775993</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3143490942660719</v>
+        <v>0.3758009432213536</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8899774219500168</v>
+        <v>0.8479312104775992</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8848887116164935</v>
+        <v>0.8408492008791761</v>
       </c>
     </row>
     <row r="3">
@@ -1800,16 +1800,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.37495999100338</v>
+        <v>84.11154075727299</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4574665190729623</v>
+        <v>0.4093513631882767</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8537495999100339</v>
+        <v>0.8411154075727298</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8463248759119688</v>
+        <v>0.8402761709840856</v>
       </c>
     </row>
     <row r="4">
@@ -1819,16 +1819,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.62866460782533</v>
+        <v>81.53617245823925</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4315000594612987</v>
+        <v>0.5053540769809237</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8362866460782532</v>
+        <v>0.8153617245823925</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8303042473316129</v>
+        <v>0.8049512867257924</v>
       </c>
     </row>
     <row r="5">
@@ -1838,16 +1838,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>81.7485445375825</v>
+        <v>78.74678846702827</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4458568604042132</v>
+        <v>0.4816016858909279</v>
       </c>
       <c r="D5" t="n">
-        <v>0.817485445375825</v>
+        <v>0.7874678846702826</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8124678327696839</v>
+        <v>0.7770834446544355</v>
       </c>
     </row>
     <row r="6">
@@ -1857,16 +1857,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89.55994429017552</v>
+        <v>82.83947092967932</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2973818218645951</v>
+        <v>0.4890106637651722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8955994429017553</v>
+        <v>0.8283947092967932</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8945206233925139</v>
+        <v>0.8234628690368619</v>
       </c>
     </row>
     <row r="7">
@@ -1876,16 +1876,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.5168989351119</v>
+        <v>74.47746087768925</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4309888759007056</v>
+        <v>0.7771140671956043</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8351689893511189</v>
+        <v>0.7447746087768925</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8304201917560237</v>
+        <v>0.722073073200915</v>
       </c>
     </row>
     <row r="8">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>83.99666087076878</v>
+        <v>79.62162302442063</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3943637282611235</v>
+        <v>0.5657215975603321</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8399666087076877</v>
+        <v>0.7962162302442063</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8308733705083124</v>
+        <v>0.7727802230236362</v>
       </c>
     </row>
     <row r="9">
@@ -1914,16 +1914,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.45635342866288</v>
+        <v>86.93820880803466</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4701469017949421</v>
+        <v>0.3106122763550957</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8445635342866288</v>
+        <v>0.8693820880803468</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8393286069479604</v>
+        <v>0.8679285205152354</v>
       </c>
     </row>
     <row r="10">
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.46710611683491</v>
+        <v>89.64930492478308</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4071282787642606</v>
+        <v>0.2715416680201694</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8746710611683491</v>
+        <v>0.8964930492478309</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8709140199728816</v>
+        <v>0.8937717778725132</v>
       </c>
     </row>
     <row r="11">
@@ -1952,16 +1952,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86.1750534174171</v>
+        <v>89.06158357771261</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3141260292691489</v>
+        <v>0.2482509335347762</v>
       </c>
       <c r="D11" t="n">
-        <v>0.861750534174171</v>
+        <v>0.8906158357771261</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8575769466592241</v>
+        <v>0.8920437154482249</v>
       </c>
     </row>
     <row r="12">
@@ -1971,16 +1971,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.00624572876929</v>
+        <v>85.57522123893806</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6933833752390153</v>
+        <v>0.3916637314949185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8200624572876928</v>
+        <v>0.8557522123893806</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8121593734852912</v>
+        <v>0.8554622732521701</v>
       </c>
     </row>
     <row r="13">
@@ -1990,16 +1990,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.32205295893564</v>
+        <v>86.40758138046178</v>
       </c>
       <c r="C13" t="n">
-        <v>0.284581769638074</v>
+        <v>0.3863737449515611</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8932205295893564</v>
+        <v>0.8640758138046177</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8916519244896201</v>
+        <v>0.8490143303288861</v>
       </c>
     </row>
     <row r="14">
@@ -2009,16 +2009,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>82.98263825811642</v>
+        <v>79.77075926262339</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4766483910498209</v>
+        <v>0.5148810627715041</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8298263825811641</v>
+        <v>0.7977075926262338</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8146902488418564</v>
+        <v>0.7858670885366571</v>
       </c>
     </row>
     <row r="15">
@@ -2028,16 +2028,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>80.31055631969134</v>
+        <v>78.65950397494788</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4964864302969848</v>
+        <v>0.5202984462181728</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8031055631969135</v>
+        <v>0.7865950397494788</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7975502865775859</v>
+        <v>0.781683994651831</v>
       </c>
     </row>
     <row r="16">
@@ -2047,16 +2047,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>82.75962594832136</v>
+        <v>81.75979030960475</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4601689362277588</v>
+        <v>0.506918565928936</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8275962594832136</v>
+        <v>0.8175979030960475</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8208688402512095</v>
+        <v>0.8132850875153934</v>
       </c>
     </row>
     <row r="17">
@@ -2066,16 +2066,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.74336283185841</v>
+        <v>90.88582081159872</v>
       </c>
       <c r="C17" t="n">
-        <v>0.190808238669221</v>
+        <v>0.2440995369882633</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9274336283185841</v>
+        <v>0.9088582081159873</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9264688590166947</v>
+        <v>0.9029922194462806</v>
       </c>
     </row>
     <row r="18">
@@ -2085,16 +2085,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>84.35150823104007</v>
+        <v>83.99596882325972</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4032435730099678</v>
+        <v>0.3678268246395722</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8435150823104006</v>
+        <v>0.8399596882325971</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8428702662492707</v>
+        <v>0.8347449964867856</v>
       </c>
     </row>
     <row r="19">
@@ -2104,16 +2104,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.24275296499104</v>
+        <v>89.94186800923883</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2050170524181643</v>
+        <v>0.2536745189000309</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9224275296499105</v>
+        <v>0.8994186800923882</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9216192593294347</v>
+        <v>0.9001335774381763</v>
       </c>
     </row>
     <row r="20">
@@ -2123,16 +2123,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>83.89916867792974</v>
+        <v>79.68226368740213</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3893217317954016</v>
+        <v>0.506268903085341</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8389916867792975</v>
+        <v>0.7968226368740214</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8344632815767369</v>
+        <v>0.7859701418515618</v>
       </c>
     </row>
     <row r="21">
@@ -2142,16 +2142,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67.85015441310046</v>
+        <v>66.81978217804652</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8191985091980314</v>
+        <v>1.053070967512516</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6785015441310046</v>
+        <v>0.6681978217804653</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6669405471683653</v>
+        <v>0.6366492824192771</v>
       </c>
     </row>
     <row r="22">
@@ -2161,16 +2161,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.43358506561475</v>
+        <v>80.12015674876081</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5459834444336593</v>
+        <v>0.7688790705210219</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8243358506561476</v>
+        <v>0.8012015674876081</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8081557203007197</v>
+        <v>0.7798833811501474</v>
       </c>
     </row>
     <row r="23">
@@ -2180,16 +2180,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.6900665230668</v>
+        <v>83.48688137440635</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5377829758722025</v>
+        <v>0.3922339187158893</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8169006652306681</v>
+        <v>0.8348688137440636</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8065996405547695</v>
+        <v>0.8314086645817144</v>
       </c>
     </row>
     <row r="24">
@@ -2199,16 +2199,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>87.58181299146186</v>
+        <v>84.66941755551518</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3224133573433695</v>
+        <v>0.3564846946712351</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8758181299146186</v>
+        <v>0.8466941755551518</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8727130109158207</v>
+        <v>0.8459449272813642</v>
       </c>
     </row>
     <row r="25">
@@ -2218,16 +2218,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.9486327736399</v>
+        <v>76.56787688474813</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5101552357897162</v>
+        <v>0.6507741864615431</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8194863277363991</v>
+        <v>0.7656787688474813</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7986794727955359</v>
+        <v>0.7520569827552831</v>
       </c>
     </row>
     <row r="26">
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>86.37202743968373</v>
+        <v>87.43432036609313</v>
       </c>
       <c r="C26" t="n">
-        <v>0.363401610874765</v>
+        <v>0.3424231634703271</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8637202743968373</v>
+        <v>0.8743432036609313</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8581242656163592</v>
+        <v>0.8620009071237946</v>
       </c>
     </row>
     <row r="27">
@@ -2256,16 +2256,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>79.76470384691909</v>
+        <v>76.19676640801391</v>
       </c>
       <c r="C27" t="n">
-        <v>0.85535719464339</v>
+        <v>0.8665694658372862</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7976470384691909</v>
+        <v>0.7619676640801391</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7921057834442268</v>
+        <v>0.7519341760616075</v>
       </c>
     </row>
     <row r="28">
@@ -2275,16 +2275,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.36873156342183</v>
+        <v>78.8505955933875</v>
       </c>
       <c r="C28" t="n">
-        <v>1.163252216158435</v>
+        <v>0.7682562271288286</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7536873156342183</v>
+        <v>0.7885059559338748</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7242936650351022</v>
+        <v>0.7760265956464776</v>
       </c>
     </row>
     <row r="29">
@@ -2294,16 +2294,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>96.60766961651917</v>
+        <v>95.33923303834808</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09877083465883818</v>
+        <v>0.1170209206105331</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9660766961651918</v>
+        <v>0.9533923303834808</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9661818308305664</v>
+        <v>0.9532909395617131</v>
       </c>
     </row>
     <row r="30">
@@ -2313,16 +2313,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>93.92347684668553</v>
+        <v>91.44594676424536</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1853020678721805</v>
+        <v>0.1853566985429173</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9392347684668552</v>
+        <v>0.9144594676424536</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9377127062275354</v>
+        <v>0.9139136014012047</v>
       </c>
     </row>
     <row r="31">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.6933883511103</v>
+        <v>97.22834972620869</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1090280409999044</v>
+        <v>0.08841938775118857</v>
       </c>
       <c r="D31" t="n">
-        <v>0.956933883511103</v>
+        <v>0.972283497262087</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9551992918769313</v>
+        <v>0.9721402884753829</v>
       </c>
     </row>
     <row r="32">
@@ -2351,16 +2351,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.15913632470867</v>
+        <v>83.5537793002823</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4357871051749407</v>
+        <v>0.4571951103971407</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8515913632470867</v>
+        <v>0.8355377930028229</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8448889233816769</v>
+        <v>0.8273207912768861</v>
       </c>
     </row>
     <row r="33">
@@ -2370,16 +2370,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.804460326589804</v>
+        <v>6.301154995033893</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2195604379388316</v>
+        <v>0.2198541671424744</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05804460326589803</v>
+        <v>0.06301154995033895</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06235362010101243</v>
+        <v>0.06933964086476867</v>
       </c>
     </row>
   </sheetData>
@@ -2435,16 +2435,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.59428714781271</v>
+        <v>81.51515151515152</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5082720580510796</v>
+        <v>0.4970851113709311</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7959428714781269</v>
+        <v>0.8151515151515152</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7809318128032487</v>
+        <v>0.7971310049799657</v>
       </c>
     </row>
     <row r="3">
@@ -2454,16 +2454,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.5107743146567</v>
+        <v>75.98482685836383</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7285070683884746</v>
+        <v>0.7012335112473617</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7551077431465669</v>
+        <v>0.7598482685836383</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7437938751648896</v>
+        <v>0.7274445913481874</v>
       </c>
     </row>
     <row r="4">
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.27258886322547</v>
+        <v>75.17746693310497</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5075458413921297</v>
+        <v>0.70589613787209</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8127258886322546</v>
+        <v>0.7517746693310496</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8024373808750163</v>
+        <v>0.7335896763775371</v>
       </c>
     </row>
     <row r="5">
@@ -2492,16 +2492,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75.71051652695958</v>
+        <v>72.18522651580031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5339081051448982</v>
+        <v>0.6107067822789152</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7571051652695957</v>
+        <v>0.721852265158003</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7375562689473958</v>
+        <v>0.7199575922579312</v>
       </c>
     </row>
     <row r="6">
@@ -2511,16 +2511,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.23802974074171</v>
+        <v>76.0959004835682</v>
       </c>
       <c r="C6" t="n">
-        <v>0.583081067353487</v>
+        <v>0.5806529058764378</v>
       </c>
       <c r="D6" t="n">
-        <v>0.762380297407417</v>
+        <v>0.760959004835682</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7502081559069966</v>
+        <v>0.7473320116889427</v>
       </c>
     </row>
     <row r="7">
@@ -2530,16 +2530,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>71.31367918407599</v>
+        <v>70.61488421180114</v>
       </c>
       <c r="C7" t="n">
-        <v>0.797681095233808</v>
+        <v>0.7244472915927569</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7131367918407598</v>
+        <v>0.7061488421180113</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6981495242096882</v>
+        <v>0.6955356897972333</v>
       </c>
     </row>
     <row r="8">
@@ -2549,16 +2549,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>76.78076799972318</v>
+        <v>79.54203756087855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6848812281745874</v>
+        <v>0.4826715957271517</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7678076799972319</v>
+        <v>0.7954203756087855</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7500467924634718</v>
+        <v>0.7784148995459835</v>
       </c>
     </row>
     <row r="9">
@@ -2568,16 +2568,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.60277338039256</v>
+        <v>82.22173202190331</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5423932960286038</v>
+        <v>0.4234550385503099</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8060277338039257</v>
+        <v>0.822217320219033</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8024980126508036</v>
+        <v>0.8211533077244043</v>
       </c>
     </row>
     <row r="10">
@@ -2587,16 +2587,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81.83548300590834</v>
+        <v>84.19865223747611</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4116630581207573</v>
+        <v>0.3971097653399435</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8183548300590836</v>
+        <v>0.841986522374761</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8124507110449308</v>
+        <v>0.8399982390489947</v>
       </c>
     </row>
     <row r="11">
@@ -2606,16 +2606,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.52226230330713</v>
+        <v>81.06462858675249</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4052293842037519</v>
+        <v>0.5128283293141673</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8352226230330713</v>
+        <v>0.8106462858675249</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8357995254401324</v>
+        <v>0.8090427332269593</v>
       </c>
     </row>
     <row r="12">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.06660957274717</v>
+        <v>77.80560385470463</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5275497091157983</v>
+        <v>0.5669977665684807</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8006660957274716</v>
+        <v>0.7780560385470463</v>
       </c>
       <c r="E12" t="n">
-        <v>0.798591472418583</v>
+        <v>0.7661987712540899</v>
       </c>
     </row>
     <row r="13">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84.78516250140572</v>
+        <v>85.04909212017405</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4203014093140761</v>
+        <v>0.3965603364709144</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8478516250140572</v>
+        <v>0.8504909212017406</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8456328563813356</v>
+        <v>0.846630429081668</v>
       </c>
     </row>
     <row r="14">
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.8201887559581</v>
+        <v>76.18128184499867</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6918804230789344</v>
+        <v>0.5483016158764561</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7382018875595809</v>
+        <v>0.7618128184499866</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7141566333017932</v>
+        <v>0.753615855305014</v>
       </c>
     </row>
     <row r="15">
@@ -2682,16 +2682,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>70.84222181852785</v>
+        <v>68.45872369138142</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6658293890456359</v>
+        <v>0.7731618039309979</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7084222181852784</v>
+        <v>0.6845872369138142</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7058535691778018</v>
+        <v>0.6638249125183535</v>
       </c>
     </row>
     <row r="16">
@@ -2701,16 +2701,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.29457002223202</v>
+        <v>71.12500973191808</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7349930197000504</v>
+        <v>0.7774914675702651</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7229457002223203</v>
+        <v>0.711250097319181</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7174027319412168</v>
+        <v>0.705719789090392</v>
       </c>
     </row>
     <row r="17">
@@ -2720,16 +2720,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>83.69267900241351</v>
+        <v>84.45981366620819</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5039976998697966</v>
+        <v>0.42192743892471</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8369267900241353</v>
+        <v>0.8445981366620818</v>
       </c>
       <c r="E17" t="n">
-        <v>0.830702277130737</v>
+        <v>0.842545473195343</v>
       </c>
     </row>
     <row r="18">
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>72.1624754539399</v>
+        <v>74.93550982274932</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8379221486936634</v>
+        <v>0.6509500212036073</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7216247545393991</v>
+        <v>0.7493550982274934</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7033943896193966</v>
+        <v>0.7449223092853662</v>
       </c>
     </row>
     <row r="19">
@@ -2758,16 +2758,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.57555861209872</v>
+        <v>85.66544693293194</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4213741035301307</v>
+        <v>0.3403868900806022</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8457555861209872</v>
+        <v>0.8566544693293194</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8406544020985217</v>
+        <v>0.8545537540154318</v>
       </c>
     </row>
     <row r="20">
@@ -2777,16 +2777,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>67.84427200927344</v>
+        <v>73.72857896694607</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8511106935329735</v>
+        <v>0.6630503130455812</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6784427200927343</v>
+        <v>0.7372857896694608</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6638073831784418</v>
+        <v>0.7265565543755698</v>
       </c>
     </row>
     <row r="21">
@@ -2796,16 +2796,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>64.13507037258107</v>
+        <v>64.89424649002153</v>
       </c>
       <c r="C21" t="n">
-        <v>1.050619704648852</v>
+        <v>1.183002028946066</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6413507037258108</v>
+        <v>0.6489424649002153</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6081183488985363</v>
+        <v>0.6051489609963363</v>
       </c>
     </row>
     <row r="22">
@@ -2815,16 +2815,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.55556708968071</v>
+        <v>73.91923805569253</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7683387549128383</v>
+        <v>0.8653872194079062</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7355556708968071</v>
+        <v>0.7391923805569253</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7283294241465907</v>
+        <v>0.7189368900121548</v>
       </c>
     </row>
     <row r="23">
@@ -2834,16 +2834,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>71.22760577513647</v>
+        <v>75.59632868796443</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7203074577264488</v>
+        <v>0.5712302663053075</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7122760577513646</v>
+        <v>0.7559632868796443</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7026207271893103</v>
+        <v>0.753820832056929</v>
       </c>
     </row>
     <row r="24">
@@ -2853,16 +2853,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80.28278791339025</v>
+        <v>75.97634927637782</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5355166419098775</v>
+        <v>0.5982270730581756</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8028278791339025</v>
+        <v>0.7597634927637782</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7991978379783793</v>
+        <v>0.7556928841531663</v>
       </c>
     </row>
     <row r="25">
@@ -2872,16 +2872,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.75825050389709</v>
+        <v>71.48894021574581</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7002109354982774</v>
+        <v>0.7785247241457303</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7375825050389709</v>
+        <v>0.7148894021574581</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7296113931770369</v>
+        <v>0.6969593089460494</v>
       </c>
     </row>
     <row r="26">
@@ -2891,16 +2891,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>75.62651926054724</v>
+        <v>75.99892732636096</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6812163801145894</v>
+        <v>0.5774063394948219</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7562651926054723</v>
+        <v>0.7599892732636095</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7423281703641825</v>
+        <v>0.7555047533086222</v>
       </c>
     </row>
     <row r="27">
@@ -2910,16 +2910,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>73.72788691943701</v>
+        <v>65.94200641874065</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9700934694497846</v>
+        <v>1.246273407678624</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7372788691943702</v>
+        <v>0.6594200641874065</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7195832191167304</v>
+        <v>0.6538355524107513</v>
       </c>
     </row>
     <row r="28">
@@ -2929,16 +2929,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.939073867421</v>
+        <v>72.89950605109041</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6781917318701745</v>
+        <v>0.815379067013661</v>
       </c>
       <c r="D28" t="n">
-        <v>0.76939073867421</v>
+        <v>0.7289950605109041</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7503355530537024</v>
+        <v>0.7170949826364706</v>
       </c>
     </row>
     <row r="29">
@@ -2948,16 +2948,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>88.76158098253445</v>
+        <v>90.79663318886841</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3256109534374748</v>
+        <v>0.2729059600581726</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8876158098253445</v>
+        <v>0.907966331888684</v>
       </c>
       <c r="E29" t="n">
-        <v>0.885580478861726</v>
+        <v>0.9076331621997349</v>
       </c>
     </row>
     <row r="30">
@@ -2967,16 +2967,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>86.906807152311</v>
+        <v>85.728077232502</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2990153993511436</v>
+        <v>0.3400506491365377</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8690680715231099</v>
+        <v>0.85728077232502</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8601683321894205</v>
+        <v>0.8376454512479222</v>
       </c>
     </row>
     <row r="31">
@@ -2986,16 +2986,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.9236498585628</v>
+        <v>94.04164395885778</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2073984196123396</v>
+        <v>0.1804079671526173</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9392364985856279</v>
+        <v>0.9404164395885777</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9363227115175657</v>
+        <v>0.9388131302096617</v>
       </c>
     </row>
     <row r="32">
@@ -3005,16 +3005,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.71032333036328</v>
+        <v>77.44304881530118</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6098213548834813</v>
+        <v>0.6067902941746434</v>
       </c>
       <c r="D32" t="n">
-        <v>0.777103233303633</v>
+        <v>0.7744304881530116</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7665421323749194</v>
+        <v>0.7638417834098389</v>
       </c>
     </row>
     <row r="33">
@@ -3024,16 +3024,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.435967497595227</v>
+        <v>6.810380248743108</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1929885196970982</v>
+        <v>0.2317236168802426</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06435967497595226</v>
+        <v>0.06810380248743107</v>
       </c>
       <c r="E33" t="n">
-        <v>0.06938598968494877</v>
+        <v>0.07325818525366125</v>
       </c>
     </row>
   </sheetData>
@@ -3089,16 +3089,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.13614304622013</v>
+        <v>73.47727921521812</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8962597083921233</v>
+        <v>0.6435260546704133</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6813614304622012</v>
+        <v>0.7347727921521813</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6670381009766869</v>
+        <v>0.7074415815540936</v>
       </c>
     </row>
     <row r="3">
@@ -3108,16 +3108,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.53029005441223</v>
+        <v>65.57859497054473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7150330081582069</v>
+        <v>0.9997421288241941</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7153029005441224</v>
+        <v>0.6557859497054472</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7137916577052497</v>
+        <v>0.641031831547944</v>
       </c>
     </row>
     <row r="4">
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75.68378619192207</v>
+        <v>73.88800941184613</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6286783718814453</v>
+        <v>0.6267390714337429</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7568378619192208</v>
+        <v>0.7388800941184612</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7479081302440516</v>
+        <v>0.7321820794875592</v>
       </c>
     </row>
     <row r="5">
@@ -3146,16 +3146,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.90720507962872</v>
+        <v>63.90842481336343</v>
       </c>
       <c r="C5" t="n">
-        <v>0.830059627816081</v>
+        <v>0.8588030659904083</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6290720507962873</v>
+        <v>0.6390842481336343</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6115458605312315</v>
+        <v>0.6099463985500357</v>
       </c>
     </row>
     <row r="6">
@@ -3165,16 +3165,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.80257614685249</v>
+        <v>69.4746494346837</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7928727579613526</v>
+        <v>0.7440161877622208</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6780257614685248</v>
+        <v>0.6947464943468369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6578183033695221</v>
+        <v>0.6726091453710357</v>
       </c>
     </row>
     <row r="7">
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.31447503871141</v>
+        <v>60.61566276524884</v>
       </c>
       <c r="C7" t="n">
-        <v>0.895128875474135</v>
+        <v>1.041873778402805</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6331447503871142</v>
+        <v>0.6061566276524883</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6217953000735023</v>
+        <v>0.5776690058851939</v>
       </c>
     </row>
     <row r="8">
@@ -3203,16 +3203,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.24753674339743</v>
+        <v>74.72088858900163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5814384783084582</v>
+        <v>0.6796045598719502</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7524753674339744</v>
+        <v>0.7472088858900163</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7337809687235575</v>
+        <v>0.7368425144965074</v>
       </c>
     </row>
     <row r="9">
@@ -3222,16 +3222,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74.12330556492704</v>
+        <v>73.63428749383645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6086077271495014</v>
+        <v>0.7025077052753963</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7412330556492703</v>
+        <v>0.7363428749383646</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7368957817541725</v>
+        <v>0.7167351688423746</v>
       </c>
     </row>
     <row r="10">
@@ -3241,16 +3241,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>78.65206446422548</v>
+        <v>78.23891210131576</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5109520313436708</v>
+        <v>0.4836535836550563</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7865206446422547</v>
+        <v>0.7823891210131576</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7715712258941568</v>
+        <v>0.7857816002206459</v>
       </c>
     </row>
     <row r="11">
@@ -3260,16 +3260,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.74485938459675</v>
+        <v>79.55276429726901</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6169159907847643</v>
+        <v>0.627729116131862</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7574485938459675</v>
+        <v>0.7955276429726901</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7508307394098325</v>
+        <v>0.7888246306380803</v>
       </c>
     </row>
     <row r="12">
@@ -3279,16 +3279,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.73916729383473</v>
+        <v>73.3192328653362</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5737684559077024</v>
+        <v>0.7140078362077474</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7773916729383472</v>
+        <v>0.733192328653362</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7754211533589718</v>
+        <v>0.7318035189722204</v>
       </c>
     </row>
     <row r="13">
@@ -3298,16 +3298,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.38445834306525</v>
+        <v>73.42970094897015</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7158384402360146</v>
+        <v>0.7201632934932907</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7338445834306525</v>
+        <v>0.7342970094897014</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7307947825168353</v>
+        <v>0.7319045340332726</v>
       </c>
     </row>
     <row r="14">
@@ -3317,16 +3317,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.76394259465913</v>
+        <v>70.11963771312901</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6444235009451708</v>
+        <v>0.7691861003637314</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7176394259465912</v>
+        <v>0.7011963771312901</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7054835628495244</v>
+        <v>0.679286881082222</v>
       </c>
     </row>
     <row r="15">
@@ -3336,16 +3336,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>65.45748665645897</v>
+        <v>59.53260841356759</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8078918702900409</v>
+        <v>1.011052350451549</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6545748665645896</v>
+        <v>0.5953260841356759</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6320376708342387</v>
+        <v>0.5691085011612922</v>
       </c>
     </row>
     <row r="16">
@@ -3355,16 +3355,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.63741035822109</v>
+        <v>62.13488005951609</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9689987363914648</v>
+        <v>1.028472269823154</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6463741035822109</v>
+        <v>0.6213488005951608</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6186539272697922</v>
+        <v>0.5966375653526109</v>
       </c>
     </row>
     <row r="17">
@@ -3374,16 +3374,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>79.95570895942006</v>
+        <v>75.91371897680776</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5059591739748914</v>
+        <v>0.6030808508706589</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7995570895942007</v>
+        <v>0.7591371897680776</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7972968519594351</v>
+        <v>0.7567259254823403</v>
       </c>
     </row>
     <row r="18">
@@ -3393,16 +3393,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>72.18834072959109</v>
+        <v>66.73007551968442</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7123570077121257</v>
+        <v>0.8331850963955125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7218834072959108</v>
+        <v>0.6673007551968443</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7073477726401356</v>
+        <v>0.6528583785894411</v>
       </c>
     </row>
     <row r="19">
@@ -3412,16 +3412,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.42560921807282</v>
+        <v>78.62533412918796</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5572879932820797</v>
+        <v>0.5102976888573418</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8042560921807281</v>
+        <v>0.7862533412918797</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7971339704170539</v>
+        <v>0.7847013279833487</v>
       </c>
     </row>
     <row r="20">
@@ -3431,16 +3431,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>63.31923286533621</v>
+        <v>62.79085459216775</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9966662156085173</v>
+        <v>0.9973563928157091</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6331923286533621</v>
+        <v>0.6279085459216776</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6185993046304332</v>
+        <v>0.6253967286904578</v>
       </c>
     </row>
     <row r="21">
@@ -3450,16 +3450,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59.38061747938995</v>
+        <v>63.08108201628041</v>
       </c>
       <c r="C21" t="n">
-        <v>1.099296103293697</v>
+        <v>0.9597746414442858</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5938061747938996</v>
+        <v>0.6308108201628041</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5612093564990617</v>
+        <v>0.603278508744757</v>
       </c>
     </row>
     <row r="22">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>75.24061626830681</v>
+        <v>74.30046972724678</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6786351206401984</v>
+        <v>0.7221536756803592</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7524061626830683</v>
+        <v>0.7430046972724678</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7447885200242552</v>
+        <v>0.7288777721919846</v>
       </c>
     </row>
     <row r="23">
@@ -3488,16 +3488,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.47533283159889</v>
+        <v>59.30388671182277</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8492245910999676</v>
+        <v>1.176206841319799</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6847533283159889</v>
+        <v>0.5930388671182276</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6758793617429255</v>
+        <v>0.5589447041827633</v>
       </c>
     </row>
     <row r="24">
@@ -3507,16 +3507,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>72.35944947620654</v>
+        <v>71.47829998529399</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6598875873411696</v>
+        <v>0.6931816014150778</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7235944947620654</v>
+        <v>0.7147829998529399</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7171493927418732</v>
+        <v>0.7118012881250652</v>
       </c>
     </row>
     <row r="25">
@@ -3526,16 +3526,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>67.11113417936141</v>
+        <v>63.09483646052301</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8115966252982616</v>
+        <v>1.16390277047952</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6711113417936141</v>
+        <v>0.6309483646052302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6592566163074812</v>
+        <v>0.6137588627152624</v>
       </c>
     </row>
     <row r="26">
@@ -3545,16 +3545,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>68.57481466102648</v>
+        <v>66.56978001539805</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8265751789944866</v>
+        <v>0.8988367466256022</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6857481466102648</v>
+        <v>0.6656978001539806</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6752879784024177</v>
+        <v>0.6517218217352688</v>
       </c>
     </row>
     <row r="27">
@@ -3564,16 +3564,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>60.5224093634028</v>
+        <v>63.57563646744349</v>
       </c>
       <c r="C27" t="n">
-        <v>1.264781192271039</v>
+        <v>1.169534553346845</v>
       </c>
       <c r="D27" t="n">
-        <v>0.605224093634028</v>
+        <v>0.635756364674435</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5917533518675429</v>
+        <v>0.6238602942612249</v>
       </c>
     </row>
     <row r="28">
@@ -3583,16 +3583,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>70.78201368523949</v>
+        <v>72.78774037837698</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7941564994553725</v>
+        <v>0.7415330053617557</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7078201368523949</v>
+        <v>0.7278774037837697</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6919012363604112</v>
+        <v>0.7180720685490143</v>
       </c>
     </row>
     <row r="29">
@@ -3602,16 +3602,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>86.61268696095988</v>
+        <v>83.2800456751356</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3619881102194388</v>
+        <v>0.4227473871471982</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8661268696095987</v>
+        <v>0.8328004567513559</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8641534555009605</v>
+        <v>0.8267338067619925</v>
       </c>
     </row>
     <row r="30">
@@ -3621,16 +3621,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>81.07146255590446</v>
+        <v>85.31925016652393</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4545403780618169</v>
+        <v>0.3328763370867819</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8107146255590447</v>
+        <v>0.8531925016652393</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7985456696978395</v>
+        <v>0.8537656381454269</v>
       </c>
     </row>
     <row r="31">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.6366318047734</v>
+        <v>94.10842654348221</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1571814545207114</v>
+        <v>0.1732910756953061</v>
       </c>
       <c r="D31" t="n">
-        <v>0.946366318047734</v>
+        <v>0.941084265434822</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9451920072590939</v>
+        <v>0.9410182361688108</v>
       </c>
     </row>
     <row r="32">
@@ -3659,16 +3659,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>72.22602559999078</v>
+        <v>71.08616568194073</v>
       </c>
       <c r="C32" t="n">
-        <v>0.7172333604271302</v>
+        <v>0.7683011922299757</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7222602559999076</v>
+        <v>0.7108616568194074</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7106954003854081</v>
+        <v>0.6976440106507414</v>
       </c>
     </row>
     <row r="33">
@@ -3678,16 +3678,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.696847329325955</v>
+        <v>8.12691250582272</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2177375516950702</v>
+        <v>0.243399879316547</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07696847329325954</v>
+        <v>0.08126912505822721</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0821640372870209</v>
+        <v>0.08897178093374786</v>
       </c>
     </row>
   </sheetData>
@@ -3743,16 +3743,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59.80242043616295</v>
+        <v>58.62939990830371</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9354509534314275</v>
+        <v>0.8521376426021258</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5980242043616294</v>
+        <v>0.586293999083037</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5706618475476549</v>
+        <v>0.5477643612180798</v>
       </c>
     </row>
     <row r="3">
@@ -3762,16 +3762,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.05879808648864</v>
+        <v>52.28955267779133</v>
       </c>
       <c r="C3" t="n">
-        <v>1.157499796152115</v>
+        <v>0.9867102856437364</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5705879808648864</v>
+        <v>0.5228955267779133</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5198975720187267</v>
+        <v>0.4999743493104126</v>
       </c>
     </row>
     <row r="4">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>63.85617522642929</v>
+        <v>64.34623136878346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8976094412306944</v>
+        <v>0.8964662656808894</v>
       </c>
       <c r="D4" t="n">
-        <v>0.638561752264293</v>
+        <v>0.6434623136878347</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6262167922394657</v>
+        <v>0.6137074188166928</v>
       </c>
     </row>
     <row r="5">
@@ -3800,16 +3800,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.84240348099897</v>
+        <v>51.38850682099326</v>
       </c>
       <c r="C5" t="n">
-        <v>1.000489953160286</v>
+        <v>0.9937153906871876</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5184240348099897</v>
+        <v>0.5138850682099326</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4782350070118378</v>
+        <v>0.4766950485848435</v>
       </c>
     </row>
     <row r="6">
@@ -3819,16 +3819,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.51590411681762</v>
+        <v>63.35660343082553</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9154619654019674</v>
+        <v>0.8184414754311244</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5851590411681762</v>
+        <v>0.6335660343082552</v>
       </c>
       <c r="E6" t="n">
-        <v>0.578224165942588</v>
+        <v>0.6308530873884955</v>
       </c>
     </row>
     <row r="7">
@@ -3838,16 +3838,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.12159274734211</v>
+        <v>42.78929748527236</v>
       </c>
       <c r="C7" t="n">
-        <v>1.080790332953135</v>
+        <v>1.19332513709863</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4612159274734211</v>
+        <v>0.4278929748527237</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4469888361988302</v>
+        <v>0.3830891850375173</v>
       </c>
     </row>
     <row r="8">
@@ -3857,16 +3857,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>72.38756390626216</v>
+        <v>70.50692480038755</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6700760909511396</v>
+        <v>0.7849321931988622</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7238756390626216</v>
+        <v>0.7050692480038755</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7148082524451127</v>
+        <v>0.6925064912401334</v>
       </c>
     </row>
     <row r="9">
@@ -3876,16 +3876,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67.43250374138185</v>
+        <v>64.09942992586441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7433829071000219</v>
+        <v>0.8816231502064815</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6743250374138184</v>
+        <v>0.640994299258644</v>
       </c>
       <c r="E9" t="n">
-        <v>0.660251562674489</v>
+        <v>0.6260254882966383</v>
       </c>
     </row>
     <row r="10">
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>70.87552660490142</v>
+        <v>72.47588646960614</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6154460184276104</v>
+        <v>0.6215005598030985</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7087552660490143</v>
+        <v>0.7247588646960613</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7042443126522018</v>
+        <v>0.7237252000643342</v>
       </c>
     </row>
     <row r="11">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>65.06474969506657</v>
+        <v>63.61136342009879</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8075286832948526</v>
+        <v>0.8531765212615332</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6506474969506657</v>
+        <v>0.6361136342009879</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6414978280298353</v>
+        <v>0.6191106855735808</v>
       </c>
     </row>
     <row r="12">
@@ -3933,16 +3933,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>56.13526068564607</v>
+        <v>62.4553845621502</v>
       </c>
       <c r="C12" t="n">
-        <v>1.104646143813928</v>
+        <v>0.881562283138434</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5613526068564607</v>
+        <v>0.624553845621502</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5312564726433686</v>
+        <v>0.6154982758902809</v>
       </c>
     </row>
     <row r="13">
@@ -3952,16 +3952,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>64.19527850586942</v>
+        <v>59.94437668145919</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8659289365013441</v>
+        <v>1.057639665404956</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6419527850586942</v>
+        <v>0.5994437668145919</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6335229380845364</v>
+        <v>0.5676957832883761</v>
       </c>
     </row>
     <row r="14">
@@ -3971,16 +3971,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58.97957594788882</v>
+        <v>59.5212761356067</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9873905574282011</v>
+        <v>0.9424152091145516</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5897957594788882</v>
+        <v>0.595212761356067</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5446749335428357</v>
+        <v>0.5509767831762303</v>
       </c>
     </row>
     <row r="15">
@@ -3990,16 +3990,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51.46904384986029</v>
+        <v>50.70398532859281</v>
       </c>
       <c r="C15" t="n">
-        <v>1.096156686047713</v>
+        <v>1.146396814286709</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5146904384986029</v>
+        <v>0.5070398532859282</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4708498510116014</v>
+        <v>0.4684780118397842</v>
       </c>
     </row>
     <row r="16">
@@ -4009,16 +4009,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.27746779816434</v>
+        <v>58.13173124334985</v>
       </c>
       <c r="C16" t="n">
-        <v>1.023185350497564</v>
+        <v>1.033365232249101</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5527746779816434</v>
+        <v>0.5813173124334986</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5315559676011282</v>
+        <v>0.5594804241226918</v>
       </c>
     </row>
     <row r="17">
@@ -4028,16 +4028,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.0496890111506</v>
+        <v>61.2811529511501</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7896696666876475</v>
+        <v>0.8739381983876229</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6404968901115062</v>
+        <v>0.612811529511501</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6314334287303451</v>
+        <v>0.6032245675940329</v>
       </c>
     </row>
     <row r="18">
@@ -4047,16 +4047,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>53.27277917629046</v>
+        <v>57.87091583837231</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9954179753859839</v>
+        <v>0.8770468148713311</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5327277917629045</v>
+        <v>0.5787091583837231</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4910007689004425</v>
+        <v>0.5297200783686311</v>
       </c>
     </row>
     <row r="19">
@@ -4066,16 +4066,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.48979662453827</v>
+        <v>69.45994342511614</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8298338423172632</v>
+        <v>0.7438823019464811</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7048979662453828</v>
+        <v>0.6945994342511613</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6886825729382775</v>
+        <v>0.6961243719201291</v>
       </c>
     </row>
     <row r="20">
@@ -4085,16 +4085,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>52.36533188003357</v>
+        <v>54.64709902334796</v>
       </c>
       <c r="C20" t="n">
-        <v>1.162599124014378</v>
+        <v>1.117478779951731</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5236533188003356</v>
+        <v>0.5464709902334796</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5026204636480578</v>
+        <v>0.5065877845885249</v>
       </c>
     </row>
     <row r="21">
@@ -4104,16 +4104,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.54538534070364</v>
+        <v>55.27539165563716</v>
       </c>
       <c r="C21" t="n">
-        <v>1.041284781073531</v>
+        <v>1.083194631586472</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5654538534070364</v>
+        <v>0.5527539165563715</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5279173365168172</v>
+        <v>0.5136525123306125</v>
       </c>
     </row>
     <row r="22">
@@ -4123,16 +4123,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.8772048201109</v>
+        <v>62.72848381041358</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9591532011826833</v>
+        <v>0.9444930026928583</v>
       </c>
       <c r="D22" t="n">
-        <v>0.648772048201109</v>
+        <v>0.6272848381041359</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6331000535166755</v>
+        <v>0.6095492558672422</v>
       </c>
     </row>
     <row r="23">
@@ -4142,16 +4142,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.87682419398092</v>
+        <v>51.63037742541026</v>
       </c>
       <c r="C23" t="n">
-        <v>1.074716304739316</v>
+        <v>1.418200429280599</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5087682419398092</v>
+        <v>0.5163037742541026</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4897936804238345</v>
+        <v>0.4638364654802172</v>
       </c>
     </row>
     <row r="24">
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.87127916331455</v>
+        <v>56.55022967326708</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9350347926219305</v>
+        <v>0.9787381698687871</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5987127916331456</v>
+        <v>0.5655022967326707</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5842209415008252</v>
+        <v>0.5470529511434206</v>
       </c>
     </row>
     <row r="25">
@@ -4180,16 +4180,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.52854263445185</v>
+        <v>46.01648803190339</v>
       </c>
       <c r="C25" t="n">
-        <v>1.137342976033688</v>
+        <v>1.095210349559784</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4952854263445186</v>
+        <v>0.4601648803190339</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4622199464141973</v>
+        <v>0.4467133691505742</v>
       </c>
     </row>
     <row r="26">
@@ -4199,16 +4199,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>63.55478853623301</v>
+        <v>62.82251576570732</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8493726996084054</v>
+        <v>0.8573200970888137</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6355478853623302</v>
+        <v>0.6282251576570731</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6238474047399514</v>
+        <v>0.6160503004327065</v>
       </c>
     </row>
     <row r="27">
@@ -4218,16 +4218,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.26046073062916</v>
+        <v>55.56933883511103</v>
       </c>
       <c r="C27" t="n">
-        <v>1.33786054464678</v>
+        <v>1.133633628363411</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4926046073062916</v>
+        <v>0.5556933883511104</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4664053072373095</v>
+        <v>0.5426003059232682</v>
       </c>
     </row>
     <row r="28">
@@ -4237,16 +4237,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.22908502668709</v>
+        <v>61.18850509087449</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8248941952983537</v>
+        <v>0.9056243894000848</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6222908502668709</v>
+        <v>0.6118850509087449</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6142066210126915</v>
+        <v>0.5870638312853372</v>
       </c>
     </row>
     <row r="29">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>73.21750188150416</v>
+        <v>70.82552617237174</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6311432888110479</v>
+        <v>0.6924203311403592</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7321750188150417</v>
+        <v>0.7082552617237173</v>
       </c>
       <c r="E29" t="n">
-        <v>0.7321225199520005</v>
+        <v>0.7013231476096102</v>
       </c>
     </row>
     <row r="30">
@@ -4275,16 +4275,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>73.64293808769972</v>
+        <v>75.08646268566336</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5553161150795253</v>
+        <v>0.5700976133462973</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7364293808769972</v>
+        <v>0.7508646268566338</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7265184044654529</v>
+        <v>0.7380486167635503</v>
       </c>
     </row>
     <row r="31">
@@ -4294,16 +4294,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.4493550982275</v>
+        <v>89.41150009948183</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3751434329897165</v>
+        <v>0.3426951835940902</v>
       </c>
       <c r="D31" t="n">
-        <v>0.854493550982275</v>
+        <v>0.8941150009948183</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8531302303124519</v>
+        <v>0.8936352439213963</v>
       </c>
     </row>
     <row r="32">
@@ -4313,16 +4313,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>60.94150756782786</v>
+        <v>60.82046269143044</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9133275585627416</v>
+        <v>0.9192460582295381</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6094150756782788</v>
+        <v>0.6082046269143043</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5893368673317847</v>
+        <v>0.5856921132075781</v>
       </c>
     </row>
     <row r="33">
@@ -4332,16 +4332,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>8.831103951707533</v>
+        <v>9.136246599257833</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2040999603970206</v>
+        <v>0.2032411457474549</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08831103951707533</v>
+        <v>0.09136246599257832</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09780649026721625</v>
+        <v>0.1019950284250839</v>
       </c>
     </row>
   </sheetData>
@@ -4397,16 +4397,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.76368307684322</v>
+        <v>42.33938009844375</v>
       </c>
       <c r="C2" t="n">
-        <v>1.078506680329641</v>
+        <v>1.344615073005358</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5176368307684323</v>
+        <v>0.4233938009844376</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4828988521894131</v>
+        <v>0.3568878746323106</v>
       </c>
     </row>
     <row r="3">
@@ -4416,16 +4416,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.38398256040277</v>
+        <v>40.60779072483327</v>
       </c>
       <c r="C3" t="n">
-        <v>1.157146600882212</v>
+        <v>1.505854105949402</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4838398256040277</v>
+        <v>0.4060779072483326</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4396721600685948</v>
+        <v>0.3357012397295245</v>
       </c>
     </row>
     <row r="4">
@@ -4435,16 +4435,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.20766615628163</v>
+        <v>59.00094291473109</v>
       </c>
       <c r="C4" t="n">
-        <v>1.204859368503094</v>
+        <v>1.246981806059678</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4620766615628162</v>
+        <v>0.590009429147311</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4133003142936376</v>
+        <v>0.5457162534540917</v>
       </c>
     </row>
     <row r="5">
@@ -4454,16 +4454,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.70566354380229</v>
+        <v>44.43671658059326</v>
       </c>
       <c r="C5" t="n">
-        <v>1.074932545423508</v>
+        <v>1.219239720702171</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4470566354380228</v>
+        <v>0.4443671658059326</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4242673586668221</v>
+        <v>0.3671858665790086</v>
       </c>
     </row>
     <row r="6">
@@ -4473,16 +4473,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.63939134421578</v>
+        <v>46.14330573793891</v>
       </c>
       <c r="C6" t="n">
-        <v>1.092165611187617</v>
+        <v>1.21164458990097</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5363939134421578</v>
+        <v>0.4614330573793891</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5171813146307744</v>
+        <v>0.4061079952785793</v>
       </c>
     </row>
     <row r="7">
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.25780499831313</v>
+        <v>35.1625014057215</v>
       </c>
       <c r="C7" t="n">
-        <v>1.202883273363113</v>
+        <v>1.435916790366173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4225780499831314</v>
+        <v>0.351625014057215</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3784535449644943</v>
+        <v>0.2664100393587478</v>
       </c>
     </row>
     <row r="8">
@@ -4511,16 +4511,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.78432339380098</v>
+        <v>62.36005501777697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9381601681311926</v>
+        <v>0.9754430156201124</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5778432339380098</v>
+        <v>0.6236005501777697</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5240060747203088</v>
+        <v>0.5842604307560401</v>
       </c>
     </row>
     <row r="9">
@@ -4530,16 +4530,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>58.4605403160927</v>
+        <v>62.89941954515177</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8920186986525852</v>
+        <v>1.017845910042524</v>
       </c>
       <c r="D9" t="n">
-        <v>0.584605403160927</v>
+        <v>0.6289941954515177</v>
       </c>
       <c r="E9" t="n">
-        <v>0.545320235851077</v>
+        <v>0.559995196820559</v>
       </c>
     </row>
     <row r="10">
@@ -4549,16 +4549,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.06878087180685</v>
+        <v>59.41253817074541</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8933739838500818</v>
+        <v>1.091371963669856</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6106878087180685</v>
+        <v>0.5941253817074542</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5765699738832482</v>
+        <v>0.5457440738367161</v>
       </c>
     </row>
     <row r="11">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>49.38105000908313</v>
+        <v>44.11171376915026</v>
       </c>
       <c r="C11" t="n">
-        <v>1.07808783352375</v>
+        <v>1.149829175074895</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4938105000908312</v>
+        <v>0.4411171376915025</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4607733532256414</v>
+        <v>0.4162529846991556</v>
       </c>
     </row>
     <row r="12">
@@ -4587,16 +4587,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>54.12564122527012</v>
+        <v>37.54011712904091</v>
       </c>
       <c r="C12" t="n">
-        <v>1.040121833483378</v>
+        <v>1.340182486176491</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5412564122527012</v>
+        <v>0.3754011712904091</v>
       </c>
       <c r="E12" t="n">
-        <v>0.518950057289442</v>
+        <v>0.309457749239951</v>
       </c>
     </row>
     <row r="13">
@@ -4606,16 +4606,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.5512331421552</v>
+        <v>46.91839894808778</v>
       </c>
       <c r="C13" t="n">
-        <v>1.165367689728737</v>
+        <v>1.32638704876105</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5255123314215521</v>
+        <v>0.4691839894808778</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4851192900710727</v>
+        <v>0.4021836132896561</v>
       </c>
     </row>
     <row r="14">
@@ -4625,16 +4625,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.2858156212424</v>
+        <v>47.99479234249431</v>
       </c>
       <c r="C14" t="n">
-        <v>1.241787037750085</v>
+        <v>1.389065471788248</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5028581562124239</v>
+        <v>0.4799479234249431</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4710680556913296</v>
+        <v>0.4386032482449672</v>
       </c>
     </row>
     <row r="15">
@@ -4644,16 +4644,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.16119516604815</v>
+        <v>39.20336681113159</v>
       </c>
       <c r="C15" t="n">
-        <v>1.188890953361988</v>
+        <v>1.373612008492152</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4416119516604815</v>
+        <v>0.3920336681113158</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4030608351922361</v>
+        <v>0.3207311813530863</v>
       </c>
     </row>
     <row r="16">
@@ -4663,16 +4663,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.02165243643977</v>
+        <v>53.18393757731468</v>
       </c>
       <c r="C16" t="n">
-        <v>1.135366480549177</v>
+        <v>1.090523760517438</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4302165243643976</v>
+        <v>0.5318393757731468</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3900253601667314</v>
+        <v>0.4777908995703116</v>
       </c>
     </row>
     <row r="17">
@@ -4682,16 +4682,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.51865500566614</v>
+        <v>37.3088002491371</v>
       </c>
       <c r="C17" t="n">
-        <v>1.241205847014983</v>
+        <v>1.746081727494796</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4651865500566614</v>
+        <v>0.373088002491371</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4144479149407209</v>
+        <v>0.2852485783790097</v>
       </c>
     </row>
     <row r="18">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>45.59027327226014</v>
+        <v>53.92451491794911</v>
       </c>
       <c r="C18" t="n">
-        <v>1.438169547915459</v>
+        <v>1.232593420023719</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4559027327226014</v>
+        <v>0.5392451491794912</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3837864468130451</v>
+        <v>0.4941679226507963</v>
       </c>
     </row>
     <row r="19">
@@ -4720,16 +4720,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.7192017231983</v>
+        <v>52.74699608128098</v>
       </c>
       <c r="C19" t="n">
-        <v>1.318031429499388</v>
+        <v>1.222537107268969</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4971920172319829</v>
+        <v>0.5274699608128098</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4281040022082253</v>
+        <v>0.4785478399442213</v>
       </c>
     </row>
     <row r="20">
@@ -4739,16 +4739,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>41.71454770369986</v>
+        <v>45.48810975873494</v>
       </c>
       <c r="C20" t="n">
-        <v>1.281111754973729</v>
+        <v>1.452622038125992</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4171454770369986</v>
+        <v>0.4548810975873493</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3835965996335173</v>
+        <v>0.3829194213697742</v>
       </c>
     </row>
     <row r="21">
@@ -4758,16 +4758,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>41.9052067924463</v>
+        <v>39.38727843666468</v>
       </c>
       <c r="C21" t="n">
-        <v>1.431786550581455</v>
+        <v>1.804051180230454</v>
       </c>
       <c r="D21" t="n">
-        <v>0.419052067924463</v>
+        <v>0.3938727843666467</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3679183559957798</v>
+        <v>0.3140095481789025</v>
       </c>
     </row>
     <row r="22">
@@ -4777,16 +4777,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.21551224491562</v>
+        <v>56.63959030787464</v>
       </c>
       <c r="C22" t="n">
-        <v>1.168197187781334</v>
+        <v>1.171615543464819</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5321551224491561</v>
+        <v>0.5663959030787463</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5062117452082233</v>
+        <v>0.523966816674629</v>
       </c>
     </row>
     <row r="23">
@@ -4796,16 +4796,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.95225737246862</v>
+        <v>38.83165079282693</v>
       </c>
       <c r="C23" t="n">
-        <v>1.683700483043989</v>
+        <v>1.865755443833768</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3095225737246862</v>
+        <v>0.3883165079282693</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2626809386046015</v>
+        <v>0.3165024600341245</v>
       </c>
     </row>
     <row r="24">
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.28231213072777</v>
+        <v>43.16187856296335</v>
       </c>
       <c r="C24" t="n">
-        <v>1.26183457026879</v>
+        <v>1.444202334682147</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4528231213072777</v>
+        <v>0.4316187856296335</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4021490996324186</v>
+        <v>0.3872670877608002</v>
       </c>
     </row>
     <row r="25">
@@ -4834,16 +4834,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.53857732333325</v>
+        <v>39.44904367684842</v>
       </c>
       <c r="C25" t="n">
-        <v>1.702216593176126</v>
+        <v>1.384293429056803</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3953857732333325</v>
+        <v>0.3944904367684842</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2995304630571308</v>
+        <v>0.3386513336145159</v>
       </c>
     </row>
     <row r="26">
@@ -4853,16 +4853,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>54.62832723466465</v>
+        <v>53.66958191679858</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9742234612504641</v>
+        <v>1.277263459159682</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5462832723466466</v>
+        <v>0.5366958191679859</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5024705626013233</v>
+        <v>0.4932643599384693</v>
       </c>
     </row>
     <row r="27">
@@ -4872,16 +4872,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>48.78883035320375</v>
+        <v>47.9394285417694</v>
       </c>
       <c r="C27" t="n">
-        <v>1.170042182256778</v>
+        <v>1.356575925648212</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4878883035320374</v>
+        <v>0.4793942854176939</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4642289500074587</v>
+        <v>0.4319600852904725</v>
       </c>
     </row>
     <row r="28">
@@ -4891,16 +4891,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51.4865180494641</v>
+        <v>56.39322139464874</v>
       </c>
       <c r="C28" t="n">
-        <v>1.147877735892932</v>
+        <v>0.9948675672213236</v>
       </c>
       <c r="D28" t="n">
-        <v>0.514865180494641</v>
+        <v>0.5639322139464874</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4872923268035628</v>
+        <v>0.5399386876597723</v>
       </c>
     </row>
     <row r="29">
@@ -4910,16 +4910,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>55.8280780975614</v>
+        <v>57.77584581181497</v>
       </c>
       <c r="C29" t="n">
-        <v>1.120916996399562</v>
+        <v>0.9651432752609252</v>
       </c>
       <c r="D29" t="n">
-        <v>0.5582807809756141</v>
+        <v>0.5777584581181499</v>
       </c>
       <c r="E29" t="n">
-        <v>0.522456609793635</v>
+        <v>0.5659942116209046</v>
       </c>
     </row>
     <row r="30">
@@ -4929,16 +4929,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>70.0939454493551</v>
+        <v>65.98006903173902</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6595269770671923</v>
+        <v>0.7463081198434034</v>
       </c>
       <c r="D30" t="n">
-        <v>0.700939454493551</v>
+        <v>0.6598006903173903</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6912266181191956</v>
+        <v>0.6349029316063637</v>
       </c>
     </row>
     <row r="31">
@@ -4948,16 +4948,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.03282035311724</v>
+        <v>68.00205884133946</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8955355163663625</v>
+        <v>1.236384183447808</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6403282035311724</v>
+        <v>0.6800205884133945</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6046769136818442</v>
+        <v>0.6561460864420482</v>
       </c>
     </row>
     <row r="32">
@@ -4967,16 +4967,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>49.90311623226268</v>
+        <v>49.26710150318485</v>
       </c>
       <c r="C32" t="n">
-        <v>1.162601519740291</v>
+        <v>1.287293589362979</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4990311623226268</v>
+        <v>0.4926710150318486</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4583814776001834</v>
+        <v>0.4392172006002503</v>
       </c>
     </row>
     <row r="33">
@@ -4986,16 +4986,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.773760959855678</v>
+        <v>9.234116219817478</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2141942829777829</v>
+        <v>0.2419802766753654</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07773760959855677</v>
+        <v>0.09234116219817479</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08675985500849617</v>
+        <v>0.1069165047515261</v>
       </c>
     </row>
   </sheetData>
